--- a/deliverables/ganttChartAvocadoBudget_V2.xlsx
+++ b/deliverables/ganttChartAvocadoBudget_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielcronauer/Desktop/ceg4110-group-project-avocadobudget/deliverables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A59A4A12-60DC-C540-8F8D-4AA1829E5285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F87033-26FC-AC4E-8D44-2ACBC88F1A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" activeTab="4" xr2:uid="{AB48C4DA-0DA3-C24A-B5FB-8C34E6C351BB}"/>
   </bookViews>
@@ -2198,16 +2198,16 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>14</c:v>
@@ -2711,16 +2711,16 @@
                   <c:v>45555</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45557</c:v>
+                  <c:v>45559</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>45562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45564</c:v>
+                  <c:v>45571</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45565</c:v>
+                  <c:v>45572</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>45576</c:v>
@@ -7957,7 +7957,7 @@
   <dimension ref="A1:X103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8040,7 +8040,7 @@
         <v>45531</v>
       </c>
       <c r="G2" s="8">
-        <f t="shared" ref="G2:G17" si="0">VLOOKUP(D2,$I:$K,3,FALSE)</f>
+        <f>F2+H2</f>
         <v>45534</v>
       </c>
       <c r="H2" s="9">
@@ -8078,18 +8078,18 @@
         <v>7</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D17" si="1">B3+C3</f>
+        <f t="shared" ref="D3:D17" si="0">B3+C3</f>
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="8">
-        <f t="shared" ref="F3:F17" si="2">VLOOKUP(B3,$I:$K,3,FALSE)</f>
+        <f t="shared" ref="F3:F17" si="1">VLOOKUP(B3,$I:$K,3,FALSE)</f>
         <v>45534</v>
       </c>
       <c r="G3" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G3:G17" si="2">F3+H3</f>
         <v>45541</v>
       </c>
       <c r="H3" s="9">
@@ -8126,18 +8126,18 @@
         <v>7</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="8">
+        <f t="shared" si="1"/>
+        <v>45541</v>
+      </c>
+      <c r="G4" s="8">
         <f t="shared" si="2"/>
-        <v>45541</v>
-      </c>
-      <c r="G4" s="8">
-        <f t="shared" si="0"/>
         <v>45548</v>
       </c>
       <c r="H4" s="9">
@@ -8174,18 +8174,18 @@
         <v>7</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="8">
+        <f t="shared" si="1"/>
+        <v>45548</v>
+      </c>
+      <c r="G5" s="8">
         <f t="shared" si="2"/>
-        <v>45548</v>
-      </c>
-      <c r="G5" s="8">
-        <f t="shared" si="0"/>
         <v>45555</v>
       </c>
       <c r="H5" s="9">
@@ -8222,23 +8222,22 @@
         <v>2</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>45555</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>45555</v>
-      </c>
-      <c r="G6" s="8">
-        <f t="shared" si="0"/>
-        <v>45557</v>
+        <v>45559</v>
       </c>
       <c r="H6" s="9">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I6" s="5">
         <v>6</v>
@@ -8264,18 +8263,18 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="8">
+        <f t="shared" si="1"/>
+        <v>45557</v>
+      </c>
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
-        <v>45557</v>
-      </c>
-      <c r="G7" s="8">
-        <f t="shared" si="0"/>
         <v>45562</v>
       </c>
       <c r="H7" s="9">
@@ -8312,23 +8311,22 @@
         <v>7</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>25</v>
       </c>
       <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>45557</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>45557</v>
-      </c>
-      <c r="G8" s="8">
-        <f t="shared" si="0"/>
-        <v>45564</v>
+        <v>45571</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="I8" s="5">
         <v>8</v>
@@ -8360,23 +8358,22 @@
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>45551</v>
+      </c>
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
-        <v>45551</v>
-      </c>
-      <c r="G9" s="8">
-        <f t="shared" si="0"/>
-        <v>45565</v>
+        <v>45572</v>
       </c>
       <c r="H9" s="9">
-        <f t="shared" si="3"/>
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="I9" s="5">
         <v>9</v>
@@ -8408,18 +8405,18 @@
         <v>14</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>45562</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
-        <v>45562</v>
-      </c>
-      <c r="G10" s="8">
-        <f t="shared" si="0"/>
         <v>45576</v>
       </c>
       <c r="H10" s="9">
@@ -8456,18 +8453,18 @@
         <v>14</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>45565</v>
+      </c>
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
-        <v>45565</v>
-      </c>
-      <c r="G11" s="8">
-        <f t="shared" si="0"/>
         <v>45579</v>
       </c>
       <c r="H11" s="9">
@@ -8504,18 +8501,18 @@
         <v>14</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>45564</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>45564</v>
-      </c>
-      <c r="G12" s="8">
-        <f t="shared" si="0"/>
         <v>45578</v>
       </c>
       <c r="H12" s="9">
@@ -8546,18 +8543,18 @@
         <v>14</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>30</v>
       </c>
       <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>45579</v>
+      </c>
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
-        <v>45579</v>
-      </c>
-      <c r="G13" s="8">
-        <f t="shared" si="0"/>
         <v>45593</v>
       </c>
       <c r="H13" s="9">
@@ -8585,18 +8582,18 @@
         <v>14</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>45579</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>45579</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="0"/>
         <v>45593</v>
       </c>
       <c r="H14" s="9">
@@ -8624,18 +8621,18 @@
         <v>7</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>70</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>32</v>
       </c>
       <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>45593</v>
+      </c>
+      <c r="G15" s="8">
         <f t="shared" si="2"/>
-        <v>45593</v>
-      </c>
-      <c r="G15" s="8">
-        <f t="shared" si="0"/>
         <v>45600</v>
       </c>
       <c r="H15" s="9">
@@ -8663,18 +8660,18 @@
         <v>7</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>77</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>45600</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
-        <v>45600</v>
-      </c>
-      <c r="G16" s="8">
-        <f t="shared" si="0"/>
         <v>45607</v>
       </c>
       <c r="H16" s="9">
@@ -8702,18 +8699,18 @@
         <v>14</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>91</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>45607</v>
+      </c>
+      <c r="G17" s="8">
         <f t="shared" si="2"/>
-        <v>45607</v>
-      </c>
-      <c r="G17" s="8">
-        <f t="shared" si="0"/>
         <v>45621</v>
       </c>
       <c r="H17" s="9">
